--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.009008</v>
+        <v>0.1487266666666667</v>
       </c>
       <c r="H2">
-        <v>0.027024</v>
+        <v>0.44618</v>
       </c>
       <c r="I2">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="J2">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N2">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P2">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q2">
-        <v>0.03717771250666667</v>
+        <v>0.5289854059622222</v>
       </c>
       <c r="R2">
-        <v>0.33459941256</v>
+        <v>4.76086865366</v>
       </c>
       <c r="S2">
-        <v>0.0005487529258775269</v>
+        <v>0.004748927234991739</v>
       </c>
       <c r="T2">
-        <v>0.0005487529258775269</v>
+        <v>0.004748927234991739</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.009008</v>
+        <v>0.1487266666666667</v>
       </c>
       <c r="H3">
-        <v>0.027024</v>
+        <v>0.44618</v>
       </c>
       <c r="I3">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="J3">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>141.74704</v>
       </c>
       <c r="O3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P3">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q3">
-        <v>0.4256191121066666</v>
+        <v>7.027188256355555</v>
       </c>
       <c r="R3">
-        <v>3.83057200896</v>
+        <v>63.2446943072</v>
       </c>
       <c r="S3">
-        <v>0.006282251309465227</v>
+        <v>0.06308606120298951</v>
       </c>
       <c r="T3">
-        <v>0.006282251309465227</v>
+        <v>0.06308606120298951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.009008</v>
+        <v>0.1487266666666667</v>
       </c>
       <c r="H4">
-        <v>0.027024</v>
+        <v>0.44618</v>
       </c>
       <c r="I4">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="J4">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N4">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P4">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q4">
-        <v>0.1254480953866667</v>
+        <v>3.648522529617777</v>
       </c>
       <c r="R4">
-        <v>1.12903285848</v>
+        <v>32.83670276656</v>
       </c>
       <c r="S4">
-        <v>0.001851647257126218</v>
+        <v>0.0327543403146744</v>
       </c>
       <c r="T4">
-        <v>0.001851647257126218</v>
+        <v>0.0327543403146744</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.009008</v>
+        <v>0.1487266666666667</v>
       </c>
       <c r="H5">
-        <v>0.027024</v>
+        <v>0.44618</v>
       </c>
       <c r="I5">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="J5">
-        <v>0.009775433435787767</v>
+        <v>0.1109321277273384</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N5">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O5">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P5">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q5">
-        <v>0.074035382784</v>
+        <v>1.152089607542222</v>
       </c>
       <c r="R5">
-        <v>0.6663184450559999</v>
+        <v>10.36880646788</v>
       </c>
       <c r="S5">
-        <v>0.001092781943318795</v>
+        <v>0.01034279897468274</v>
       </c>
       <c r="T5">
-        <v>0.001092781943318795</v>
+        <v>0.01034279897468274</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.222109</v>
       </c>
       <c r="I6">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400421</v>
       </c>
       <c r="J6">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400422</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N6">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O6">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P6">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q6">
-        <v>0.3055618911761111</v>
+        <v>0.2633296416981111</v>
       </c>
       <c r="R6">
-        <v>2.750057020585</v>
+        <v>2.369966775283</v>
       </c>
       <c r="S6">
-        <v>0.004510174793284917</v>
+        <v>0.002364022321118786</v>
       </c>
       <c r="T6">
-        <v>0.004510174793284917</v>
+        <v>0.002364022321118786</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.222109</v>
       </c>
       <c r="I7">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400421</v>
       </c>
       <c r="J7">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400422</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>141.74704</v>
       </c>
       <c r="O7">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P7">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q7">
         <v>3.498143700817777</v>
@@ -883,10 +883,10 @@
         <v>31.48329330736</v>
       </c>
       <c r="S7">
-        <v>0.05163353153100991</v>
+        <v>0.0314043255361845</v>
       </c>
       <c r="T7">
-        <v>0.05163353153100991</v>
+        <v>0.0314043255361845</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.222109</v>
       </c>
       <c r="I8">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400421</v>
       </c>
       <c r="J8">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400422</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N8">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O8">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P8">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q8">
-        <v>1.031052065506111</v>
+        <v>1.816239388880889</v>
       </c>
       <c r="R8">
-        <v>9.279468589555002</v>
+        <v>16.346154499928</v>
       </c>
       <c r="S8">
-        <v>0.0152186027469304</v>
+        <v>0.01630515436136092</v>
       </c>
       <c r="T8">
-        <v>0.0152186027469304</v>
+        <v>0.01630515436136092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.222109</v>
       </c>
       <c r="I9">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400421</v>
       </c>
       <c r="J9">
-        <v>0.08034383307391152</v>
+        <v>0.05522216136400422</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N9">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O9">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P9">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q9">
-        <v>0.608493370144</v>
+        <v>0.5735117455771112</v>
       </c>
       <c r="R9">
-        <v>5.476440331296</v>
+        <v>5.161605710194</v>
       </c>
       <c r="S9">
-        <v>0.008981524002686288</v>
+        <v>0.005148659145340015</v>
       </c>
       <c r="T9">
-        <v>0.008981524002686288</v>
+        <v>0.005148659145340015</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8384493333333333</v>
+        <v>1.117936666666667</v>
       </c>
       <c r="H10">
-        <v>2.515348</v>
+        <v>3.35381</v>
       </c>
       <c r="I10">
-        <v>0.9098807334903006</v>
+        <v>0.8338457109086573</v>
       </c>
       <c r="J10">
-        <v>0.9098807334903007</v>
+        <v>0.8338457109086574</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.127188333333334</v>
+        <v>3.556762333333333</v>
       </c>
       <c r="N10">
-        <v>12.381565</v>
+        <v>10.670287</v>
       </c>
       <c r="O10">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="P10">
-        <v>0.05613591760223621</v>
+        <v>0.04280930450251701</v>
       </c>
       <c r="Q10">
-        <v>3.460438306624444</v>
+        <v>3.976235027052223</v>
       </c>
       <c r="R10">
-        <v>31.14394475962001</v>
+        <v>35.78611524347</v>
       </c>
       <c r="S10">
-        <v>0.05107698988307376</v>
+        <v>0.03569635494640649</v>
       </c>
       <c r="T10">
-        <v>0.05107698988307377</v>
+        <v>0.03569635494640648</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8384493333333333</v>
+        <v>1.117936666666667</v>
       </c>
       <c r="H11">
-        <v>2.515348</v>
+        <v>3.35381</v>
       </c>
       <c r="I11">
-        <v>0.9098807334903006</v>
+        <v>0.8338457109086573</v>
       </c>
       <c r="J11">
-        <v>0.9098807334903007</v>
+        <v>0.8338457109086574</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>141.74704</v>
       </c>
       <c r="O11">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805706</v>
       </c>
       <c r="P11">
-        <v>0.6426570597336345</v>
+        <v>0.5686906263805704</v>
       </c>
       <c r="Q11">
-        <v>39.6159037299911</v>
+        <v>52.82140446915556</v>
       </c>
       <c r="R11">
-        <v>356.54313356992</v>
+        <v>475.3926402224</v>
       </c>
       <c r="S11">
-        <v>0.5847412768931594</v>
+        <v>0.4742002396413965</v>
       </c>
       <c r="T11">
-        <v>0.5847412768931594</v>
+        <v>0.4742002396413965</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8384493333333333</v>
+        <v>1.117936666666667</v>
       </c>
       <c r="H12">
-        <v>2.515348</v>
+        <v>3.35381</v>
       </c>
       <c r="I12">
-        <v>0.9098807334903006</v>
+        <v>0.8338457109086573</v>
       </c>
       <c r="J12">
-        <v>0.9098807334903007</v>
+        <v>0.8338457109086574</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.92629833333334</v>
+        <v>24.53173066666666</v>
       </c>
       <c r="N12">
-        <v>41.77889500000001</v>
+        <v>73.595192</v>
       </c>
       <c r="O12">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921413</v>
       </c>
       <c r="P12">
-        <v>0.1894184303222152</v>
+        <v>0.2952646900921412</v>
       </c>
       <c r="Q12">
-        <v>11.67649555338445</v>
+        <v>27.42492120905778</v>
       </c>
       <c r="R12">
-        <v>105.08845998046</v>
+        <v>246.82429088152</v>
       </c>
       <c r="S12">
-        <v>0.1723481803181585</v>
+        <v>0.2462051954161059</v>
       </c>
       <c r="T12">
-        <v>0.1723481803181586</v>
+        <v>0.2462051954161059</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8384493333333333</v>
+        <v>1.117936666666667</v>
       </c>
       <c r="H13">
-        <v>2.515348</v>
+        <v>3.35381</v>
       </c>
       <c r="I13">
-        <v>0.9098807334903006</v>
+        <v>0.8338457109086573</v>
       </c>
       <c r="J13">
-        <v>0.9098807334903007</v>
+        <v>0.8338457109086574</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.218847999999999</v>
+        <v>7.746355333333334</v>
       </c>
       <c r="N13">
-        <v>24.656544</v>
+        <v>23.239066</v>
       </c>
       <c r="O13">
-        <v>0.1117885923419141</v>
+        <v>0.09323537902477132</v>
       </c>
       <c r="P13">
-        <v>0.1117885923419141</v>
+        <v>0.0932353790247713</v>
       </c>
       <c r="Q13">
-        <v>6.891087626367999</v>
+        <v>8.659934660162223</v>
       </c>
       <c r="R13">
-        <v>62.01978863731199</v>
+        <v>77.93941194146001</v>
       </c>
       <c r="S13">
-        <v>0.101714286395909</v>
+        <v>0.07774392090474856</v>
       </c>
       <c r="T13">
-        <v>0.101714286395909</v>
+        <v>0.07774392090474856</v>
       </c>
     </row>
   </sheetData>
